--- a/500all/speech_level/speeches_CHRG-114hhrg23244.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23244.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. The Committee on Homeland Security, Subcommittee on Border and Maritime Security will come to order. The subcommittee is meeting today to examine CBP's procurement and use of technology to secure the Southern Border. I recognize myself for an opening statement.    First, let me say thanks for your patience. I know we are now nearly an hour behind. We will try to be as expeditious as possible. We value your time, but you never know when votes are going to come up. So I appreciate your grace and your patience with that.    The Southwest Border of the United States is home to nearly 2,000 miles of majestic, yet rugged and often treacherous terrain, terrain that makes Border Patrol access in some remote areas a mere impossible proposition. Manpower alone, while essential, will never be enough to secure the border. In order to enhance situational awareness, we need to leverage technological force multipliers that provide persistent surveillance across wide swaths of remote areas along the border.    Technology such as cameras, night vision goggles, motion sensors, and surveillance equipment have become critical elements of our border security operations. These technologies have enhanced agent safety, provide a constant monitoring of difficult-to-access areas, and extended situational awareness, and the ability to interdict criminal activity faster.    Aviation assets, such unmanned aerial vehicles, or UAVs, often considered UASs, unmanned aerial systems, equipped with advanced radar capabilities, have also refined our understanding of the significant threat that exists along the border, and help reposition and redeploy assets as the flow and the vulnerability shift. But technology cannot do any of these things if CBP's acquisition and procurement process cannot get these tools and the latest cutting-edge technology in the hands of the men and women on the ground in a timely fashion.    Situation awareness is contingent on feeding information from centralized operation centers far from the border down to the individual agent level, so they can actually respond accordingly. Technology has to be focused on meeting the immediate needs of the agent, and not stovepiped into a command center. I speak to this from first-hand information. I have more experience than I would prefer to have in some cases on, you know, time-sensitive targeting, on operations centers in the military, and so these challenges are similar as far as merging together information providing a good common operational picture, situation awareness, but not just to the generals, but to the troops and those that are actually doing the mission. So that is always going to be my sort-of frame of mind. Although it is not the same as in the military, there are similar challenges as far as using technology, fusing information, and providing real-time, near-time decision quality information to leadership and to those that are out there on the front lines.    CBP's border technology procurement efforts, to put it mildly, have a bit of a checkered history of not delivering timely acquisitions that include more failures than successes, including the Secure Border Initiative, coastal interceptor vessel, ultralight aircraft detection, and mobile surveillance capability, which have all become synonymous with a deeply troubled acquisition process. These procurements have run over budget, behind schedule, been subject to litigation, and wasted a good deal of taxpayer dollars to boot. In this time of limited budgets, we cannot afford to waste $1 billion on a failed system to learn what not to do. Border security cannot continue to be held back by a system that has an astonishing lack of urgency in getting it done for the people on the ground.    Our agents and officers in the field desperately need the capability they have asked for to do the job. But on the whole, I don't believe CBP's Office of Technology Innovation and Acquisition, OTIA, has delivered. OTIA's mission is to identify and acquire products and services to improve CBP's performance in securing the borders.    OTIA has been the lead agency responsible for acquiring technologies associated with the Arizona technology plant. As far as I can tell, the only procurement that is working well and is on budget is the integrated fixed tower program located principally in my district. However, this comes after chronic delays and the cancellation of SBInet. Now on track, Chief Vitiello recently certified to Congress that the program meets its operational requirements.    With the exception of that outlier, industry officials we have spoken to tell us over and over again, CBP's requirements are often poorly drafted, ill-defined, and, perhaps, most alarmingly not stable. Transparency is also a challenge as the CBP's ability to forecast their needs so industry can spend the research and development dollars to mature technology for use in border security applications.    The Government Accountability Office, GAO, has, on several occasions, criticized CBP for not following aspects of DHS's acquisition management guidance with the Arizona border technology plant and the lack of performance metrics to determine if the cost is worth the border security improvement.    As a result of CBP's troubling procurement record, I authored the Border Security Technology Accountability Act that ensures border security programs are meeting costs, schedule, and performance thresholds, and that technology is subjected to a rigorous independent verification and validation process. This legislation is vital to restore accountability, but it is being held up for reasons unknown in the Senate, even though it passed unanimously in the House.    I am interested to hear from our witnesses on how CBP conducts market research, forges for emerging technology, repurposes existing Department of Defense equipment, and collaborates with DHS's Office of Science and Technology to mature technology not quite ready for field deployment. Congress repeatedly asked a very simple question when it comes to border security: What will it take to gain situational awareness and operational control of the Southern Border? Up until now, the answer we received have been limited, or not backed up by a requirements process, similar to what the Department of Defense uses. In short, it was a guess.    The Border Patrol and Air and Maritime Operations are involved in an effort called the ``capability gap analysis process,'' or CGAP. It is an aerial-based exercise designed to ferret out tactical weaknesses in our border security defenses and, hopefully, inform the technological budget process. Congress expects the Border Patrol and Air and Marines to be able to quickly identify and justify the resources needed to secure the border. I am optimistic the CGAP process is a much-needed step in that direction.    Finding solutions to CBP's procurement woes and quickly meeting the technology requirements of the men and women charged with securing the border is the reason I am holding this hearing today. I look forward to the witnesses' testimony.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412580</t>
   </si>
   <si>
-    <t>Filemon Vela</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vela. Thank you, Madam Chairwoman. I am pleased to join you for today's hearing, examining U.S. Customs and Border Protection's efforts to enhance border security through the use of technology.    As a Member of Congress representing a district in the U.S.-Mexico border, I understand the importance of technology to achieving improved situational awareness, enhanced security, and improved facilitation of legitimate traffic along our Nation's borders.    The Department of Homeland Security has, for years, attempted to delay various kinds of technology to the borders with mixed results. To be fair, identifying, acquiring, and deploying the right mix of border security technology is no easy task. Technology evolves over time. The flow of border crosses and illicit traffic changes. America's borders are varied places with different geography, terrain, and climate, meaning that what works in Arizona may not work in South Texas, and likely will not work on our northern borders. It is important that this committee conduct careful oversight of CBP's on-going border security technology efforts, including the Arizona border surveillance technology plan, and deployment of integrated fixed towers in Arizona, procurement of mobile surveillance technologies, and the use of Predator B unmanned aircraft.    The Government Accountability Office has reported on the Arizona border surveillance technology plan identifying management, scheduling, and cost concerns similar to those that contributed to SBInet's problems.    I hope to hear from our GAO witness today about whether and how those issues are being addressed by CBP. Given my particular interest in South Texas, I also hope to hear from our witnesses about the border security's technologies in use or planned for the South Texas region. For example, I understand that there was a protest with a contract award for mobile video surveillance system units which consist of short- and medium-range mobile surveillance equipment mounted on telescoping masks mounted on Border Patrol vehicles. Many of the projected 297 units are slated for deployment in the Rio Grande Valley, and I hope to learn what the revised time line is for deployment.    I also know that the weather in Corpus Christi has proven challenging for flying CBP's Predator Bs prompting the agency to fly the aircraft from other locations.    I hope to hear from CBP about how these issues have affected situational awareness along the border in South Texas, if at all.    Finally, I hope we can have a frank discussion with our witnesses about how CBP can best position its on-going border security technology programs for success. I thank the witnesses for joining us today, and I yield back.</t>
   </si>
   <si>
@@ -79,27 +73,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Vitiello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vitiello. Thank you, Chairwoman McSally, Ranking Member Vela, and distinguished Members of the subcommittee. It is an honor to appear before you today on behalf of the dedicated men and women of the United States Border Patrol, and discuss the role of technology in our border security operations between the ports of entry. This Saturday, the 28th, marks the Border Patrol's birthday. Since 1924, the men and women of this agency have made significant contributions to securing the homeland, from mounted watchmen riding the line in 1924; to guarding Nazi prisoners of war; in 1961, securing domestic air flights as marshals; and integrating universities in Oxford and Montgomery in 1962.    Proven to be a versatile and effective workforce, our agents have helped to capture escaped felons in New York in June of last year. On our borders, we try to innovate and use technology that enhances agent effectiveness and keeps them safe.    In 1935, we were advanced enough to install and use two-way radios in cars and stations. Today, the advanced technology deployed along our borders not only enhances the security of our Nation by providing us with increased situational awareness of illegal activity, it also significantly increases the safety of our front-line agents. While the basic Border Patrol mission is to secure the Nation's border from illegal entry of persons and goods has not changed in the past 92 years, the operational environment in which we work and the threats we face have changed significantly.    Today, our mission includes deterring acts of terrorism, detecting and intercepting human drug and weapon smuggling and trafficking, and preventing and responding to other criminal activity. The effective deployment of fixed and mobile technology is critical to the Border Patrol operations. With these resources, our front-line agents are better-informed, more effective, and safer. There is no doubt that technology is a critical factor of the Border Patrol strategic plan, which implements a security approach based on risk, and emphasizes unity of effort through integrated planning and execution with our partners.    Detection technology extends the visual range and awareness of front-line agents. Ground sensors alert agents to movements and activity, while mounted cameras and sensors on fixed--on aircraft fixed towers and Border Patrol vehicles can be controlled remotely to verify a target.    All of this technology works together, and ultimately enables the Border Patrol to gain situational awareness, direct a response team to the best interdiction location, and forewarn agents of any danger otherwise unknown along the way.    The Border Patrol continually evaluates our situational awareness posture, adjusts our capabilities as required to secure our borders. We work closely with our operational intelligence and acquisition colleagues within CBP and DHS to identify and develop technology, such as tunnel detection, and monitoring technology, small unmanned aircraft systems, tactical communication upgrades, and border surveillance tools tailored for the Southwest Border and northern borders.    In coordination with the DHS joint requirements process, the Border Patrol will continue to use the capability gap analysis process to conduct mission analysis and identify capability gaps and potential operational requirements over the short, medium, and long term.    With all our border technology, CBP works closely with agents on the ground to develop operational requirements, conduct testing and evaluation, and obtain user feedback to ensure the right tools are applied to the right capability gap.    Thank you, again, for the opportunity to discuss how technology enhances the Border Patrol's capabilities and strengthens our efforts in securing the border. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Vitiello.    The Chair now recognizes Major Alles for 5 minutes.</t>
   </si>
   <si>
-    <t>Alles</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Alles. Good afternoon, Chairwoman McSally and Ranking Member Vela and Members of the committee. It is an honor to appear before you today to discuss the critical role of technology, and specifically CPB's Air and Marine assets in securing our Nation's borders. CBP's Air and Marine Operations, or AMOs as we call ourselves is a critical component of the CBP's layered border security strategy. AMO's 1,272 law enforcement agents operate 243 aircraft and 360 vessels, and has sophisticated domain awareness network across the United States, Puerto Rico, and the Virgin Islands. AMO's critical aerial and maritime missions fall under 4 core competencies: Domain awareness, investigation, interdiction, and contingency operations and National taskings. AMO is a vital contributor to the security of our borders interdicting illicit traffic in the air, on the land, and the littoral waters of the United States through the coordinated use of integrated Air and Marine forces.    All our highly-specialized law enforcement agents provide unique expertise and capability domains in which we operate. Since the consolidation of Air and Marine assets within AMO 11 years ago, we have transformed from a force composed primarily of light observation aircraft into a modern air and maritime fleet equipped with sophisticated surveillance sensors and communication systems. We are working to increase the connectivity and networking among all our Air and Marine assets. AMO is continuing the efforts to reduce the number of our aircraft types and position our assets for highest utilization, which will increase both efficiency and effectiveness of our operations.    I would like to take this opportunity to highlight a few of our key assets and describe how this technology furthers CBP's capability to detect, identify, monitor, and appropriately respond to threats in our Nation's borders.    First, our multi-role enforcement aircraft are highly capable and equipped with sophisticated technology systems that enable it to be effective over both land and water. These aircraft are replacing several older single-mission assets and enhance CBP's interdiction and investigative capabilities.    Second, beyond our borders in the source and transit zone, CBP's P-3 long-range aircraft has been instrumental in countering narcotic operations, transnational criminal organizations, and vessels thousands of miles from the homeland. I might mention, they have just completed a rewinging of 14 aircraft, a $410 million program which came in under cost and ahead of schedule.    Third, in the maritime environment working in conjunction with the aviation assets, our new coastal interceptor vessels are physically designed and engineered with the speed maneuverability, integrity, and endurance to intercept and engage in a variety of suspect noncompliant vessels in offshore waters as well as the Great Lakes and on the Northern Border.    Finally, a vital component of our doing awareness is the Intermarine Operations Center. IMOC leverages advanced surveillance systems, integrates information from Federal, State, local, international, law enforcement, and intelligence sources to detect, identify, track, and direct the interdiction of suspect criminal use of noncommercial air and maritime conveyances approaching, crossing, or operating inside the United States--operating inside the borders of United States and Puerto Rico.    We work closely with our operation and acquisition colleagues at CBP, including the DHS Science and Technology Directorate to identify and develop surveillance and detection technology. AMO is also working with Domestic Nuclear Detection Office at DHS to develop and test radiological and nuclear detection threats beyond--threats aboard our small vessels.    Chairwoman McSally, and Ranking Member Vela, and distinguished Members of the committee, thank you for this opportunity to discuss AMO's technology assets, capabilities, and efforts in securing our borders. I look forward to your questions in a few moments. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, General Alles.    The Chair now recognizes Mr. Borkowski for 5 minutes.</t>
   </si>
   <si>
-    <t>Borkowski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Borkowski. Thank you, Chairwoman McSally, Ranking Member Vela, and distinguished Members of the committee. It is a pleasure to be back before you.    As you suggested, Chairwoman McSally, it certainly has been a challenging few years, and I share your frustration with the delays. The procurement system is very frustrating, I think, to all of us. I look forward to a discussion of that.    When I was last here before you 2 years ago, we were just getting to the point where we were awarding contracts, and in many cases, there were 2 years of delays in getting to those contract awards. A number of reasons for that, some of it is cultural, some of it is structural, but that has been a continuing frustration. However, since that time, actually, the performance on these contracts has been relatively good.    You cited the IFT, the Integrated Fixed Towers. As you may recall, that contract was awarded at a 75 percent cost savings compared to our original estimate and continues to perform consistently with that, and has performed pretty well against its schedule.    The remote video surveillance system is the other large significant program in Arizona. That program also has clicked along with--it was awarded at a reduced cost compared to our estimate. We have already deployed 4 AORs, the fifth will be completed by this year, and it has performed well on its cost.    The mobile surveillance capability is completely deployed to Arizona and is now extending its deployment outside of Arizona. That was awarded below its estimated cost and performed on cost. In addition, those systems have delivered on their performance.    So I think one of the things I would say is that is as an acquisition person, I essentially have 4 degrees of freedom that I play with: Cost, schedule, performance, and risk.    For the most part, I think we have not done well on schedule. I would have to acknowledge that. We have failed on schedule. We are trying to attack that. I am still looking for more ways to do that. But on the cost, schedule, and performance on these systems, I actually think we have done well once we got them going.    So Arizona is well under way compared to the baseline. The next area of emphasis on the Southwest Border has been Texas. Because of the money we saved, we were actually able to free up resources to do what our--they started out as pilots with DOD reuse, Department of Defense reuse systems. I think the most visible of those are the tactical aerostats. We now have 6 flying in Texas. We are putting up 17 of the towers that are associated with those--with cameras and potentially radars in areas that, frankly, would not have had technology until probably 2018, 2019 because we were able to generate savings, and by working with the Department of Defense, we are able to get a little more speed in delivery.    Having said that, though, that is not the long-term plan for Texas. The long-term plan for Texas has been remote video surveillance systems, mobile video surveillance systems. Those contracts are underway. The challenge in Texas has to do with environmental land clearances, land acquisition. Those are challenges. We are working through those, but that is an 18- to 24-month problem that we are working through.    We have gotten tremendous support from Congress on funding for that. We are working our way through that.    Sir, Congressman Vela, with respect to the mobile video surveillance systems, those are also, as you suggested, designated for Texas. They are very critical there.    The current contract will provide about 127 of those. The protest has been resolved in our favor. The contract is under way. We expect to deliver the first 4 of those toward the end of this year for testing, and then, over the next 2 years, deliver 127 that will be covered under the contract.    So I think we have made some progress. Am I completely satisfied? No. We do have some work to do in terms of, how do we handle this very, very slow acquisition process? How do we improve that? I look forward to discussions on that.    Having said that, I do think the programs that we have awarded have largely been successful once we have gotten over that procurement hump. I look forward to questions going forward.    [The joint prepared statement of Mr. Vitiello, Mr. Alles, and Mr. Borkowski follows:] Prepared Statement of Ronald Vitiello, Randolph D. ``Tex'' Alles, and                              Mark Borkowski                              May 24, 2016    Chairwoman McSally, Ranking Member Vela, and distinguished Members of the committee. It is a pleasure to appear before you today on behalf of U.S. Customs and Border Protection (CBP) to discuss the acquisition and deployment of border security technology between our Nation's ports of entry (POE).    Along the more than 5,000 miles of border with Canada, 1,900 miles of border with Mexico, and approximately 95,000 miles of shoreline, CBP secures our borders and associated airspace and maritime approaches to prevent illegal entry of people and goods into the United States. The border environment in which CBP works is dynamic and requires continual adaptation to respond to emerging threats and changing conditions. We appreciate the partnership and support we have received from this committee, whose commitment to the security of the American people has enabled the continued deployment of advanced technology assets needed to secure the border.    In the acquisition and deployment of border security technology, CBP ensures that investments are effective and that procurement processes are efficient, transparent, and compliant with Federal law and Department of Homeland Security (DHS) policy. With all our programs, operations, and activities, we welcome oversight and embrace our responsibility as stewards of American taxpayer resources.    When CBP was formed in 2003, it was an organization comprised of components that had different approaches, methods, and policies regarding acquisition and management activities. Although our operations had been integrated under one mission, CBP, and in a broader context DHS, lacked a standardized and unified acquisition structure, including governance and oversight, strong requirements development process, and centralized resource allocation. In order to strengthen and streamline acquisition management throughout the Department, Secretary Johnson launched the Unity of Effort initiative, which established a more collaborative process for decision making, including those that shape acquisition and resource allocation.    A key element of the Unity of Effort initiative is the establishment of the Joint Requirements Council (JRC), designed to improve the quality and validity of the Department's requirements generation and oversight process. The JRC creates a stronger focus earlier in the investment life cycle--at the requirements development stage--to better position DHS components, including CBP, to effectively and efficiently execute acquisition strategies and budgets that ultimately close capability gaps.    As part of this initiative, CBP is the sponsoring component for DHS Joint Task Force West and a participating component in Joint Task Force East and Joint Task Force for Investigations. These Joint Task Forces are conducting the DHS Southern Border and Approaches Campaign Plan (SBAC), launched in early 2015, which put the assets and personnel of the Department to use in a combined and strategic way to collaboratively plan and execute multi-component DHS operations to better protect the border. Aimed at leveraging the range of unique Department roles, responsibilities, and capabilities, the Campaign enhances our operational capability to address comprehensive threat environments in a unified way. Together, the DHS Unity of Effort initiative and the Campaign will drive border security investments and direct DHS resources in a much more collaborative fashion to address the range of threats and challenges, including illegal migration, smuggling of illegal drugs, human and arms trafficking, the illicit financing of such operations, and threat of terrorist exploitation of border vulnerabilities.    Our testimony today will discuss CBP's technology investments between the POEs, highlight some of CBP's deployed border technology assets, and describe the agency's path forward to ensure that CBP's acquisition strategies and structure is in place to meet the challenge of a dynamic border threat environment.             technology investments between ports of entry    For CBP, the use of technology in the border environment is an invaluable force multiplier to increase situational awareness. Thanks to the support of Congress, CBP continues to deploy proven, effective technology to strengthen border security operations between the POEs--in the land, air, and maritime environments. With enhanced surveillance capabilities, CBP can improve its situational awareness remotely, direct a response team to the best interdiction location, and warn the team of any additional danger otherwise unknown along the way. As a result, these investments increase CBP's visibility on the border, operational capabilities, and the safety of front-line law enforcement personnel.    It is imperative that DHS and CBP promote operational agility by leveraging technological advances and innovative practices. A key element of CBP's acquisition strategy, innovation is not simply the process of buying the newest technology; rather, it is the product of a collaborative culture that supports creativity, optimizes resource allocation and pursues the greatest return on investment and delivery of prioritized operational capabilities.    This committee is familiar with the outcome of CBP's SBInet program, an earlier component of the DHS Secure Border Initiative (SBI) that was designed as a comprehensive and integrated technology program to provide persistent surveillance across U.S. borders. The program experienced significant schedule delays and cost overruns because it did not allow necessary flexibility to adapt to differing needs in the various regions of the border. SBInet eventually delivered systems to 2 Areas of Responsibility (AORs) in Arizona that continue to operate successfully. Nevertheless, DHS cancelled SBInet on January 14, 2011, because it was too costly and the idea of one, all-encompassing program was unnecessarily complex for border technology.    Since 2011, DHS and CBP have approached our border technology requirements, ranging from small to large, simple to complex, in more manageable pieces tailored to specific regions on the border. For example, CBP's Arizona Technology Plan (ATP), which focuses on technology that specifically meets the needs of border conditions in Arizona, is the first of many phases in a multi-year effort to provide a cost-effective mix of fixed and mobile technology across the Southwest Border. The ATP acquisition strategy leverages ``non-developmental'' technology to the greatest extent possible, providing more flexible, less risky, and less costly procurements and deployments. Using the non-developmental approach, most of the programs within the ATP are on contract and many systems have already been deployed. Although it is too early to declare complete success, the early indications of the acquisition strategy are quite positive and, in some cases, far exceed our expectations.    There is no one-size-fits-all approach to border security technology acquisition. CBP's Office of Technology Innovation and Acquisition (OTIA) works collaboratively with the U.S. Border Patrol (USBP) and Air and Marine Operations (AMO) to develop requirements, test and evaluate technology, and deploy effective technology in support of CBP's border security mission.Fixed, Persistent Surveillance    Integrated Fixed Tower (IFT) systems are one of the technologies that are in the process of being acquired and deployed to the Southwest Border in Arizona as part of the ATP. IFTs are fixed surveillance assets that provide long-range persistent surveillance. These systems cover very large areas and incorporate a Common Operating Picture (COP), a central hub that receives data from one or multiple tower units. The tower systems automatically detect and track items of interest, and provide the COP operator(s) with the data, video, and geospatial location of selected items of interest to identify and classify them. In February of this year, the USBP conditionally accepted the IFT system and is currently looking to develop improvements for the already-deployed system.    Remote Video Surveillance Systems (RVSS) are another fixed technology asset used in select areas along the Southwest and Northern borders. These systems provide short-, medium-, and long-range persistent surveillance mounted on stand-alone towers, or other structures. The RVSS uses cameras, radio, and microwave transmitters to send video to a control room and enables a control room operator to remotely detect, identify, classify, and track targets using the video feed.    Without fixed-system technology such as IFT and RVSS, the Border Patrol's ability to detect, identify, classify, and track illicit activity would be decreased. Fixed systems provide line-of-sight surveillance coverage to efficiently detect incursions in flat terrain. The Border Patrol integrates mobile and portable systems to address areas where rugged terrain and dense ground cover may allow adversaries to penetrate through blind spots or avoid the coverage areas of fixed systems.Mobile Capabilities    The border environment between the ports of entry is dynamic. Working in conjunction with fixed surveillance assets, CBP's mobile technology assets provide flexibility and agility to adapt to changing border conditions and threats. Mobile technologies are deployed in California, Arizona, New Mexico, and Texas as well as several Northern Border locations. Along the Southwest Border, Mobile Surveillance Capability (MSC) systems provide long-range mobile surveillance and consist of a suite of radar and camera sensors mounted on Border Patrol vehicles. An agent deploys with the vehicle to operate the system, which automatically detects and tracks items of interest and provides the agent/operator with data and video of the observed subject.    Mobile Vehicle Surveillance Systems (MVSS) provide short- and medium-range mobile surveillance equipment mounted on telescoping masts and consist of a suite of camera sensors mounted on Border Patrol vehicles. An agent deploys with the system, which detects, tracks, identifies, and classifies items of interest using the video feed. The agent/operator observes activity on the video monitor to detect intrusions and assist agents/officers in responding to those intrusions.    Another system, which does not need to be mounted to a vehicle, is the Agent Portable Surveillance System (APSS). These systems provide medium-range mobile surveillance, and are transported by 2 or 3 agents and mounted on a tripod. Two agents remain on-site, one to operate the system, which automatically detects and tracks items of interest and provides the agent/operator with data and video of selected items of interest.    In some areas along the Southwest Border, CBP also uses Unattended Ground Sensors (UGS), which provide short-range persistent surveillance. These sensors support our capability to detect, and to a limited extent, track, and identify subjects. Sensor capabilities include seismic, passive infrared, acoustic, contact closure, and magnetic, although these capabilities are not necessarily available in all deployed UGS. When a ground sensor is activated, an alarm is communicated to a data decoder that translates the sensor's activation data to a centralized computer system in an operations center. Some UGS are used in conjunction with Imaging Sensors (IS). The UGS/IS include an imaging capability to transmit images or video back to the operations center. As with UGS, UGS/IS are monitored in a centralized system and geospatially tracked.    CBP's Tactical Aerostats and Re-locatable Towers program, originally part of the Department of Defense (DOD) Re-use program, uses a mix of aerostats, towers, cameras, and radars to provide Border Patrol with increased situational awareness through an advanced surveillance capability over a wide area. This capability has proven to be a vital asset in increasing CBP's ability to detect, identify, classify, and track activity.    The absence of mobile surveillance technology would limit the Border Patrol's ability to detect, identify, classify, track, and rapidly respond to illicit activity. These technologies not only provide significant security benefits and multiply the capabilities of law enforcement personnel to detect, identify, and respond to suspicious activity, but they also assist with public safety along the border. Mobile surveillance technology systems enable agents to position the technology where it is needed at a specific moment, extend our observational capabilities, and increase the accuracy and speed of our response.    Technology is critical to border security operations. A tailored blend of fixed, mobile, and portable surveillance systems that complement one another increases the Border Patrol's effectiveness in targeting a response to high-risk areas, enabling rapid response strategies to maximize limited manpower, and adjusting to seasonal/periodic traffic patterns.Air and Marine Capabilities    AMO increases CBP's situational awareness, enhances its detection and interdiction capabilities, and extends our border security zones, offering greater capacity to stop threats prior to reaching the Nation's shores. Through the use of coordinated and integrated surveillance capabilities--including aviation, marine, tethered aerostats, and integrated ground-based radars--AMO detects, interdicts, and prevents acts of terrorism and the unlawful movement of people, illegal drugs, and other contraband toward or across the borders of the United States. These assets provide multi-domain awareness for our partners across the Department, as well as critical aerial and maritime surveillance, interdiction, and operational assistance to our ground personnel.    AMO's maritime assets are tailored to the conditions of the threat environment in which we operate, and equipped with the capabilities required to interdict attempted illicit smuggling of drugs and undocumented aliens. Often there is little time to interdict inbound suspect vessels and AMO has honed its maritime border security response capability around rapid and effective interception, pursuit, and interdiction of these craft. AMO employs high-speed Coastal Interceptor Vessels (CIV) that are specifically designed and engineered with the speed, maneuverability, integrity, and endurance to intercept and engage a variety of suspect non-compliant vessels in offshore waters, as well as the Great Lakes on the Northern Border.    CBP's aerial surveillance capabilities are enhanced through recent investments and deployments of Multi-Role Enforcement Aircraft (MEA). The MEA has a multi-mode radar for use over water and land, an electro-optical/infrared camera system, and a satellite communications system. The MEA replaces several older, single-mission assets and remains the only asset customized to provide maritime support in the near-shore customs waters. With its sophisticated technology systems, the MEA is a highly capable, twin-engine aircraft and a critical investment in CBP's maritime, land, and aerial surveillance capabilities.    P-3 Long-Range Trackers and Airborne Early Warning Aircraft provide critical detection and interdiction capability in both the air and marine environment. Sophisticated sensors and high-endurance capability greatly increase CBP's range to counter illicit trafficking. AMO P-3s are an integral part of the successful counter-narcotic missions operating in coordination with the Joint Interagency Task Force--South. The P-3s patrol in a 42-million-square-mile area that includes more than 41 nations, the Pacific Ocean, Gulf of Mexico, Caribbean Sea, and seaboard approaches to the United States. In fiscal year 2015, CBP's P-3s operational efforts led to the total seizure or disruption of more than 204,464 pounds of cocaine with an estimated street value of $15.3 billion.    Another important asset is the DHC-8 Maritime Patrol Aircraft (MPA). It bridges the gap between the strategic P-3 and Unmanned Aircraft System (UAS) assets and the smaller assets providing support in the littoral waters. This tool allows AMO an unprecedented level of situational awareness in the Gulf of Mexico and the Caribbean.    AMO's tactical resources have also received a number of technological upgrades to add to their utility. The AS-350 helicopter has received avionics upgrades to allow the operators to focus more of their attention on the mission, making them more effective. AMO has also added detection technology to its fixed-wing light observation aircraft, greatly increasing its tactical capabilities.    Additionally, UAS are increasingly instrumental in CBP's layered and integrated approach to border security. The UAS consists of an unmanned aircraft, sensors, communication packages, pilots, and ground control operators. UAS are used to meet surveillance and other mission requirements along the Southwest Border, Northern Border, Southeast coastal area, and in the drug source and transit zones. Four of CBP's UAS are equipped with Vehicle and Dismount Exploitation Radar (VADER) sensor systems, which are capable of detecting human movement along the ground and increase CBP aerial surveillance, enforcement, and security to prevent potential threats from illegally entering the United States. Since 2012, VADER has detected over 40,000 people moving across the Southwest Border. Since 2006, this versatile platform has been credited with interdicting/disrupting 13,144 pounds of cocaine and 321,330 pounds of marijuana worth an estimated $1.8 billion. The UAS program has achieved over 35,900 flight hours since program inception in fiscal year 2006.    UAS and P-3 aircraft are equipped with technology that provides full-motion video capture and provides real-time and forensic analysis. This advanced detection and communication system enables CBP to disseminate images and other sensor data to operational users in real time, increasing response effectiveness and speed.    Perhaps the most important advancements come in the area of data integration and exploitation. Downlink technology, paired with the BigPipe system, allows AMO to provide a video feed and situational awareness to its law enforcement partners in real time. In addition, the Minotaur mission integration system will allow multiple aircraft to share information from multiple sources, providing a never-before-seen level of air, land, and sea domain awareness. As the Minotaur system evolves, it will provide even greater awareness for a greater number of users.    AMO also combats airborne and maritime smuggling with an integrated long-range radar architecture comprised of ground-based radars and elevated radars deployed on tethered aerostats. AMO, in partnership with DOD, operates and maintains a large network of terrestrial radars to establish and maintain wide-area, persistent surveillance of commercial and non-commercial aircraft flying toward, arriving at, or passing through our borders. With the awareness generated by this sensor network, CBP can detect and respond to air and maritime movement anomalies that could pose a threat to our homeland, including trafficking organizations attempting to deliver contraband across the border by flying beneath the radar field of view of our ground-based radars.    AMO's Tethered Aerostat Radar System (TARS) monitors the low-altitude approaches to the United States and denies this airspace for illicit smuggling. With 8 aerostat sites--6 along the Southwest Border, 1 in the Florida Keys, and 1 in Puerto Rico--the TARS' elevated sensor mitigates the effect of the curvature of the earth and terrain-masking limitations associated with ground-based radars, enabling maximum long-range radar detection capabilities. In fiscal years 2014 and 2015 TARS recorded nearly 1,000 suspected cross-border attempts, approximately 85 percent of all Southwest Border radar detections.    A vital component of DHS's domain awareness capabilities, CBP's Air and Marine Operations Center (AMOC) integrates surveillance capabilities and coordinates with other CBP operational components, including the USBP, Federal, and international partners \\1\\ to detect, identify, track, and support interdiction of suspect aviation and maritime activity in the approaches to U.S. borders, at the borders, and within the interior of the United States. Coordinating with extensive law enforcement and intelligence databases and communication networks, AMOC's command-and-control operational system, the Air and Marine Operations Surveillance System (AMOSS), provides a single display that is capable of processing up to 700 individual sensor feeds and tracking over 50,000 individual targets simultaneously. The 8 TARS sites represent approximately 2 percent of the total available radars in AMOSS, yet were able to account for detecting 53 percent of all suspect target detections.---------------------------------------------------------------------------    \\1\\ AMOC partners include the Federal Aviation Administration (FAA), the Department of Defense (including the North American Aerospace Defense Command (NORAD)), and the governments of Mexico, Canada, and the Bahamas.---------------------------------------------------------------------------    As we continue to deploy border surveillance technology, particularly along the Southwest Border, these investments in fixed and mobile technology, as well as enhancements of domain awareness capabilities provided by the AMOC allow CBP the flexibility to shift more officers and agents from detection duties to interdiction of illegal activities on our borders.               cbp's acquisition strategy and realignment    Since its establishment in 2010, OTIA has led CBP's acquisition oversight and coordination efforts and has been recognized as the primary point of contact for CBP acquisition activities. While CBP's intent was for all mission offices' acquisition program management, requirement development, and oversight to be integrated and consolidated under OTIA, because of the broad scope of CBP's mission and diversity of operating environments, the management of several of CBP's large acquisition programs were not migrated to OTIA. However, in the past 5 years, OTIA has aligned CBP's acquisition policies, procedures, and practices with DHS Department standards, consolidated CBP's acquisition governance and accountability structure, brought multiple high-impact programs back on track, and has contracted, deployed and sustained critical border security technology assets.    In 2015, as part of on-going headquarters realignment efforts, CBP Commissioner R. Gil Kerlikowske engaged the Defense Acquisition University (DAU) to provide a review and recommendations of the state of CBP acquisition management. The key DAU alignment-related findings and recommendations included clarifying and strengthening the Component Acquisition Executive (CAE) independent oversight authority on behalf of the Commissioner; separating OTIA's key roles of oversight, requirements, and program management; and aligning programs and accountability with operational offices. To ensure that these recommended improvements are possible, and to ensure CBP's acquisition construct aligns with the DHS acquisition oversight framework, CBP is in the process of redirecting acquisition, program, and requirements management responsibilities.    This realignment is the next step forward in building off the achievements OTIA has made possible, including the standardization of acquisition policies, processes, and oversight and the development of acquisition expertise in the CBP workforce. The separation and redistribution of CBP's acquisition functions--including requirements development and program management--from OTIA to other areas within CBP's operational structure, increases acquisition effectiveness and efficiency, and strengthens agency oversight of acquisition activities. CBP's requirements function will be managed under the Operational Support (OS) division, where technical experts will work directly with front-line operators in the execution of a holistic, strategy-led requirements development program. The execution of acquisition programs will be aligned directly under CBP's operational components--USBP, AMO, and the Office of Field Operations--to tighten the link between acquisition programs, users, and funding. Acquisition program oversight, policy and procedures promulgation, and acquisition workforce management--under the leadership of the Chief Acquisition Officer--will be part of CBP's Enterprise Services (ES) division to create an even stronger alignment with the DHS acquisition framework. The realignment will result in stronger management much earlier in the acquisition investment life cycle, increased oversight, as well as better integration of CBP personnel and operational expertise.    CBP works closely with other elements of DHS headquarters and fellow Department components to ensure strategy-led, operationally-informed requirements development. In coordination with the DHS joint requirements process, the USBP and AMO will continue to use the Capability Gap Analysis Process (CGAP) to conduct mission analysis and identify capability gaps. From this analysis, OS will work with USBP and AMO to identify and plan operational requirements over the short-, mid-, and long-term and to identify potential solutions, which may (or may not) include fencing, roads, or other solutions depending on the nature, scope, severity, and geographic location of a given capability gap. AMO began C-GAP in October 2015 using best practices and lessons learned from the USBP process. The AMO process examines aviation and maritime mission spaces and capabilities, while taking advantage of the analytical models and processes the USBP has established. AMO and USBP gap analyses inform the OS-led requirements process and are prioritized and linked to Department activities and strategies. With all technology, CBP works closely with agents on the ground to develop operational requirements, conduct testing and evaluation, and obtain user feedback to ensure that the right tool is applied to the right capability gap. Terrain, threat, socio-economic, and political considerations vary greatly across sectors and regions, making a ``one size fits all'' approach ineffective.    CBP works closely with the DHS Science &amp; Technology (S&amp;T) Directorate to identify and develop technology to improve our surveillance and detection capabilities along our land and maritime borders. This includes investments in tunnel detection and tunnel activity monitoring technology; tactical communication upgrades, Small Unmanned Aircraft Systems (SUAS); low-flying aircraft detection and tracking systems, land and maritime data integration/data fusion capabilities, and border surveillance tools tailored to the Southwest and Northern Border, including unattended ground sensors/tripwires, upgrades for mobile Surveillance Systems, slash camera poles, and wide-area surveillance.    In addition to collaboration with our DHS partners, as part of CBP's efforts to seek innovative ways to acquire and use technology, CBP formed a partnership with DOD to identify and reuse excess DOD technology. To date, CBP has acquired several types of technology, including thermal imaging equipment, night vision equipment, and tactical aerostat systems, which increase CBP's situational awareness and operational flexibility in responding to border threats. We will continue to pursue additional opportunities to leverage DOD excess equipment. We will do this in a sustainable way by considering the full life-cycle costs of the DOD equipment we are considering before acquiring it.                               conclusion    Technology is a primary driver of all land, maritime, and air domain awareness. The information obtained from fixed and mobile surveillance systems, ground sensors, imaging systems, and other advanced technologies enhances domain awareness, informs situational awareness, and better enables CBP to monitor, detect, identify, and appropriately respond to threats in the Nation's border regions.    A</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>400402</t>
   </si>
   <si>
-    <t>Bennie G. Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Madam Chair, and thank you, Ranking Member.    Some of us have been around a little while, and we have seen procurements come and go. I guess I will ask Ms. Gambler: Your review of the systems, can you share with the committee your analysis of whether or not we are getting better at procurements? Or we are about where we have been all the time?</t>
   </si>
   <si>
@@ -262,9 +244,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Madam Chairwoman.    I want to revisit this issue of the aerostats. Can you tell me how many aerostats you have in--that are deployed at present?</t>
   </si>
   <si>
@@ -380,9 +359,6 @@
   </si>
   <si>
     <t>412617</t>
-  </si>
-  <si>
-    <t>Norma J. Torres</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you, Chairwoman.    How is CBP measuring the effectiveness of the technology deployed at the border, and what matrix are used and how does that compare over time?</t>
@@ -1057,11 +1033,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1083,11 +1057,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1107,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1135,11 +1105,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1161,11 +1129,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1185,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1213,11 +1177,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1237,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1265,11 +1225,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1289,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1317,11 +1273,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1343,11 +1297,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1369,11 +1321,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1395,11 +1345,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1419,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1447,11 +1393,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1471,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1499,11 +1441,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1523,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1551,11 +1489,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1575,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1601,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1627,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1653,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1679,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1705,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1731,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1757,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1783,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1809,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1835,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1861,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1887,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1913,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1939,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1965,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1991,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2017,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2043,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2069,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2095,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2121,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2147,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2173,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2201,11 +2089,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2225,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2253,11 +2137,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2279,11 +2161,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2303,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2329,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2355,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2381,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2407,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2433,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2459,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2485,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2511,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2537,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2563,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2591,11 +2449,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2615,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2641,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2667,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2693,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2719,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2745,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2771,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>82</v>
-      </c>
-      <c r="H68" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2797,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2823,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2849,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2875,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2901,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2927,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2953,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2979,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3005,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3031,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3057,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3083,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3109,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3135,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3161,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3187,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3213,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3239,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3265,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>81</v>
-      </c>
-      <c r="G87" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3291,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3317,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3343,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3369,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3395,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3421,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3447,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3473,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3499,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3525,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3551,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3577,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3603,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>81</v>
-      </c>
-      <c r="G100" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3631,11 +3409,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3655,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
-      </c>
-      <c r="G102" t="s">
-        <v>122</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3681,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3707,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>121</v>
-      </c>
-      <c r="G104" t="s">
-        <v>122</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3733,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3759,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
-      </c>
-      <c r="G106" t="s">
-        <v>122</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3785,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3811,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
+        <v>114</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>121</v>
-      </c>
-      <c r="G108" t="s">
-        <v>122</v>
-      </c>
-      <c r="H108" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3837,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3863,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G110" t="s">
-        <v>122</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3889,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3915,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>121</v>
-      </c>
-      <c r="G112" t="s">
-        <v>122</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3941,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3967,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>121</v>
-      </c>
-      <c r="G114" t="s">
-        <v>122</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3995,11 +3745,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4019,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4047,11 +3793,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4071,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4099,11 +3841,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4123,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4151,11 +3889,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4175,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4203,11 +3937,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4227,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4255,11 +3985,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4279,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4307,11 +4033,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4331,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4359,11 +4081,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4383,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4411,11 +4129,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4435,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4461,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4489,11 +4201,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4513,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4541,11 +4249,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4565,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4593,11 +4297,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4617,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4645,11 +4345,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4669,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4697,11 +4393,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4723,11 +4417,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4747,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4775,11 +4465,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4799,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4827,11 +4513,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4851,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4879,11 +4561,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4905,11 +4585,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4929,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4957,11 +4633,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4981,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5007,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5035,11 +4705,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5059,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5087,11 +4753,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5111,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5139,11 +4801,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5163,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5191,11 +4849,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5215,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5243,11 +4897,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5267,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5295,11 +4945,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5319,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5347,11 +4993,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5373,11 +5017,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5397,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5425,11 +5065,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5449,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
-      </c>
-      <c r="G171" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5477,11 +5113,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5501,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5529,11 +5161,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5553,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5581,11 +5209,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5605,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5633,11 +5257,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5657,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5685,11 +5305,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5709,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5737,11 +5353,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5761,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5789,11 +5401,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5813,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5841,11 +5449,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5865,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5893,11 +5497,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5917,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5945,11 +5545,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5969,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5997,11 +5593,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6021,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6049,11 +5641,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6073,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6101,11 +5689,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6125,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6153,11 +5737,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6177,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6205,11 +5785,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6229,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6257,11 +5833,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6283,11 +5857,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23244.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23244.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. The Committee on Homeland Security, Subcommittee on Border and Maritime Security will come to order. The subcommittee is meeting today to examine CBP's procurement and use of technology to secure the Southern Border. I recognize myself for an opening statement.    First, let me say thanks for your patience. I know we are now nearly an hour behind. We will try to be as expeditious as possible. We value your time, but you never know when votes are going to come up. So I appreciate your grace and your patience with that.    The Southwest Border of the United States is home to nearly 2,000 miles of majestic, yet rugged and often treacherous terrain, terrain that makes Border Patrol access in some remote areas a mere impossible proposition. Manpower alone, while essential, will never be enough to secure the border. In order to enhance situational awareness, we need to leverage technological force multipliers that provide persistent surveillance across wide swaths of remote areas along the border.    Technology such as cameras, night vision goggles, motion sensors, and surveillance equipment have become critical elements of our border security operations. These technologies have enhanced agent safety, provide a constant monitoring of difficult-to-access areas, and extended situational awareness, and the ability to interdict criminal activity faster.    Aviation assets, such unmanned aerial vehicles, or UAVs, often considered UASs, unmanned aerial systems, equipped with advanced radar capabilities, have also refined our understanding of the significant threat that exists along the border, and help reposition and redeploy assets as the flow and the vulnerability shift. But technology cannot do any of these things if CBP's acquisition and procurement process cannot get these tools and the latest cutting-edge technology in the hands of the men and women on the ground in a timely fashion.    Situation awareness is contingent on feeding information from centralized operation centers far from the border down to the individual agent level, so they can actually respond accordingly. Technology has to be focused on meeting the immediate needs of the agent, and not stovepiped into a command center. I speak to this from first-hand information. I have more experience than I would prefer to have in some cases on, you know, time-sensitive targeting, on operations centers in the military, and so these challenges are similar as far as merging together information providing a good common operational picture, situation awareness, but not just to the generals, but to the troops and those that are actually doing the mission. So that is always going to be my sort-of frame of mind. Although it is not the same as in the military, there are similar challenges as far as using technology, fusing information, and providing real-time, near-time decision quality information to leadership and to those that are out there on the front lines.    CBP's border technology procurement efforts, to put it mildly, have a bit of a checkered history of not delivering timely acquisitions that include more failures than successes, including the Secure Border Initiative, coastal interceptor vessel, ultralight aircraft detection, and mobile surveillance capability, which have all become synonymous with a deeply troubled acquisition process. These procurements have run over budget, behind schedule, been subject to litigation, and wasted a good deal of taxpayer dollars to boot. In this time of limited budgets, we cannot afford to waste $1 billion on a failed system to learn what not to do. Border security cannot continue to be held back by a system that has an astonishing lack of urgency in getting it done for the people on the ground.    Our agents and officers in the field desperately need the capability they have asked for to do the job. But on the whole, I don't believe CBP's Office of Technology Innovation and Acquisition, OTIA, has delivered. OTIA's mission is to identify and acquire products and services to improve CBP's performance in securing the borders.    OTIA has been the lead agency responsible for acquiring technologies associated with the Arizona technology plant. As far as I can tell, the only procurement that is working well and is on budget is the integrated fixed tower program located principally in my district. However, this comes after chronic delays and the cancellation of SBInet. Now on track, Chief Vitiello recently certified to Congress that the program meets its operational requirements.    With the exception of that outlier, industry officials we have spoken to tell us over and over again, CBP's requirements are often poorly drafted, ill-defined, and, perhaps, most alarmingly not stable. Transparency is also a challenge as the CBP's ability to forecast their needs so industry can spend the research and development dollars to mature technology for use in border security applications.    The Government Accountability Office, GAO, has, on several occasions, criticized CBP for not following aspects of DHS's acquisition management guidance with the Arizona border technology plant and the lack of performance metrics to determine if the cost is worth the border security improvement.    As a result of CBP's troubling procurement record, I authored the Border Security Technology Accountability Act that ensures border security programs are meeting costs, schedule, and performance thresholds, and that technology is subjected to a rigorous independent verification and validation process. This legislation is vital to restore accountability, but it is being held up for reasons unknown in the Senate, even though it passed unanimously in the House.    I am interested to hear from our witnesses on how CBP conducts market research, forges for emerging technology, repurposes existing Department of Defense equipment, and collaborates with DHS's Office of Science and Technology to mature technology not quite ready for field deployment. Congress repeatedly asked a very simple question when it comes to border security: What will it take to gain situational awareness and operational control of the Southern Border? Up until now, the answer we received have been limited, or not backed up by a requirements process, similar to what the Department of Defense uses. In short, it was a guess.    The Border Patrol and Air and Maritime Operations are involved in an effort called the ``capability gap analysis process,'' or CGAP. It is an aerial-based exercise designed to ferret out tactical weaknesses in our border security defenses and, hopefully, inform the technological budget process. Congress expects the Border Patrol and Air and Marines to be able to quickly identify and justify the resources needed to secure the border. I am optimistic the CGAP process is a much-needed step in that direction.    Finding solutions to CBP's procurement woes and quickly meeting the technology requirements of the men and women charged with securing the border is the reason I am holding this hearing today. I look forward to the witnesses' testimony.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412580</t>
   </si>
   <si>
+    <t>Vela</t>
+  </si>
+  <si>
+    <t>Filemon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vela. Thank you, Madam Chairwoman. I am pleased to join you for today's hearing, examining U.S. Customs and Border Protection's efforts to enhance border security through the use of technology.    As a Member of Congress representing a district in the U.S.-Mexico border, I understand the importance of technology to achieving improved situational awareness, enhanced security, and improved facilitation of legitimate traffic along our Nation's borders.    The Department of Homeland Security has, for years, attempted to delay various kinds of technology to the borders with mixed results. To be fair, identifying, acquiring, and deploying the right mix of border security technology is no easy task. Technology evolves over time. The flow of border crosses and illicit traffic changes. America's borders are varied places with different geography, terrain, and climate, meaning that what works in Arizona may not work in South Texas, and likely will not work on our northern borders. It is important that this committee conduct careful oversight of CBP's on-going border security technology efforts, including the Arizona border surveillance technology plan, and deployment of integrated fixed towers in Arizona, procurement of mobile surveillance technologies, and the use of Predator B unmanned aircraft.    The Government Accountability Office has reported on the Arizona border surveillance technology plan identifying management, scheduling, and cost concerns similar to those that contributed to SBInet's problems.    I hope to hear from our GAO witness today about whether and how those issues are being addressed by CBP. Given my particular interest in South Texas, I also hope to hear from our witnesses about the border security's technologies in use or planned for the South Texas region. For example, I understand that there was a protest with a contract award for mobile video surveillance system units which consist of short- and medium-range mobile surveillance equipment mounted on telescoping masks mounted on Border Patrol vehicles. Many of the projected 297 units are slated for deployment in the Rio Grande Valley, and I hope to learn what the revised time line is for deployment.    I also know that the weather in Corpus Christi has proven challenging for flying CBP's Predator Bs prompting the agency to fly the aircraft from other locations.    I hope to hear from CBP about how these issues have affected situational awareness along the border in South Texas, if at all.    Finally, I hope we can have a frank discussion with our witnesses about how CBP can best position its on-going border security technology programs for success. I thank the witnesses for joining us today, and I yield back.</t>
   </si>
   <si>
@@ -73,18 +88,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Vitiello</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vitiello. Thank you, Chairwoman McSally, Ranking Member Vela, and distinguished Members of the subcommittee. It is an honor to appear before you today on behalf of the dedicated men and women of the United States Border Patrol, and discuss the role of technology in our border security operations between the ports of entry. This Saturday, the 28th, marks the Border Patrol's birthday. Since 1924, the men and women of this agency have made significant contributions to securing the homeland, from mounted watchmen riding the line in 1924; to guarding Nazi prisoners of war; in 1961, securing domestic air flights as marshals; and integrating universities in Oxford and Montgomery in 1962.    Proven to be a versatile and effective workforce, our agents have helped to capture escaped felons in New York in June of last year. On our borders, we try to innovate and use technology that enhances agent effectiveness and keeps them safe.    In 1935, we were advanced enough to install and use two-way radios in cars and stations. Today, the advanced technology deployed along our borders not only enhances the security of our Nation by providing us with increased situational awareness of illegal activity, it also significantly increases the safety of our front-line agents. While the basic Border Patrol mission is to secure the Nation's border from illegal entry of persons and goods has not changed in the past 92 years, the operational environment in which we work and the threats we face have changed significantly.    Today, our mission includes deterring acts of terrorism, detecting and intercepting human drug and weapon smuggling and trafficking, and preventing and responding to other criminal activity. The effective deployment of fixed and mobile technology is critical to the Border Patrol operations. With these resources, our front-line agents are better-informed, more effective, and safer. There is no doubt that technology is a critical factor of the Border Patrol strategic plan, which implements a security approach based on risk, and emphasizes unity of effort through integrated planning and execution with our partners.    Detection technology extends the visual range and awareness of front-line agents. Ground sensors alert agents to movements and activity, while mounted cameras and sensors on fixed--on aircraft fixed towers and Border Patrol vehicles can be controlled remotely to verify a target.    All of this technology works together, and ultimately enables the Border Patrol to gain situational awareness, direct a response team to the best interdiction location, and forewarn agents of any danger otherwise unknown along the way.    The Border Patrol continually evaluates our situational awareness posture, adjusts our capabilities as required to secure our borders. We work closely with our operational intelligence and acquisition colleagues within CBP and DHS to identify and develop technology, such as tunnel detection, and monitoring technology, small unmanned aircraft systems, tactical communication upgrades, and border surveillance tools tailored for the Southwest Border and northern borders.    In coordination with the DHS joint requirements process, the Border Patrol will continue to use the capability gap analysis process to conduct mission analysis and identify capability gaps and potential operational requirements over the short, medium, and long term.    With all our border technology, CBP works closely with agents on the ground to develop operational requirements, conduct testing and evaluation, and obtain user feedback to ensure the right tools are applied to the right capability gap.    Thank you, again, for the opportunity to discuss how technology enhances the Border Patrol's capabilities and strengthens our efforts in securing the border. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Vitiello.    The Chair now recognizes Major Alles for 5 minutes.</t>
   </si>
   <si>
+    <t>Alles</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Alles. Good afternoon, Chairwoman McSally and Ranking Member Vela and Members of the committee. It is an honor to appear before you today to discuss the critical role of technology, and specifically CPB's Air and Marine assets in securing our Nation's borders. CBP's Air and Marine Operations, or AMOs as we call ourselves is a critical component of the CBP's layered border security strategy. AMO's 1,272 law enforcement agents operate 243 aircraft and 360 vessels, and has sophisticated domain awareness network across the United States, Puerto Rico, and the Virgin Islands. AMO's critical aerial and maritime missions fall under 4 core competencies: Domain awareness, investigation, interdiction, and contingency operations and National taskings. AMO is a vital contributor to the security of our borders interdicting illicit traffic in the air, on the land, and the littoral waters of the United States through the coordinated use of integrated Air and Marine forces.    All our highly-specialized law enforcement agents provide unique expertise and capability domains in which we operate. Since the consolidation of Air and Marine assets within AMO 11 years ago, we have transformed from a force composed primarily of light observation aircraft into a modern air and maritime fleet equipped with sophisticated surveillance sensors and communication systems. We are working to increase the connectivity and networking among all our Air and Marine assets. AMO is continuing the efforts to reduce the number of our aircraft types and position our assets for highest utilization, which will increase both efficiency and effectiveness of our operations.    I would like to take this opportunity to highlight a few of our key assets and describe how this technology furthers CBP's capability to detect, identify, monitor, and appropriately respond to threats in our Nation's borders.    First, our multi-role enforcement aircraft are highly capable and equipped with sophisticated technology systems that enable it to be effective over both land and water. These aircraft are replacing several older single-mission assets and enhance CBP's interdiction and investigative capabilities.    Second, beyond our borders in the source and transit zone, CBP's P-3 long-range aircraft has been instrumental in countering narcotic operations, transnational criminal organizations, and vessels thousands of miles from the homeland. I might mention, they have just completed a rewinging of 14 aircraft, a $410 million program which came in under cost and ahead of schedule.    Third, in the maritime environment working in conjunction with the aviation assets, our new coastal interceptor vessels are physically designed and engineered with the speed maneuverability, integrity, and endurance to intercept and engage in a variety of suspect noncompliant vessels in offshore waters as well as the Great Lakes and on the Northern Border.    Finally, a vital component of our doing awareness is the Intermarine Operations Center. IMOC leverages advanced surveillance systems, integrates information from Federal, State, local, international, law enforcement, and intelligence sources to detect, identify, track, and direct the interdiction of suspect criminal use of noncommercial air and maritime conveyances approaching, crossing, or operating inside the United States--operating inside the borders of United States and Puerto Rico.    We work closely with our operation and acquisition colleagues at CBP, including the DHS Science and Technology Directorate to identify and develop surveillance and detection technology. AMO is also working with Domestic Nuclear Detection Office at DHS to develop and test radiological and nuclear detection threats beyond--threats aboard our small vessels.    Chairwoman McSally, and Ranking Member Vela, and distinguished Members of the committee, thank you for this opportunity to discuss AMO's technology assets, capabilities, and efforts in securing our borders. I look forward to your questions in a few moments. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, General Alles.    The Chair now recognizes Mr. Borkowski for 5 minutes.</t>
   </si>
   <si>
+    <t>Borkowski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Borkowski. Thank you, Chairwoman McSally, Ranking Member Vela, and distinguished Members of the committee. It is a pleasure to be back before you.    As you suggested, Chairwoman McSally, it certainly has been a challenging few years, and I share your frustration with the delays. The procurement system is very frustrating, I think, to all of us. I look forward to a discussion of that.    When I was last here before you 2 years ago, we were just getting to the point where we were awarding contracts, and in many cases, there were 2 years of delays in getting to those contract awards. A number of reasons for that, some of it is cultural, some of it is structural, but that has been a continuing frustration. However, since that time, actually, the performance on these contracts has been relatively good.    You cited the IFT, the Integrated Fixed Towers. As you may recall, that contract was awarded at a 75 percent cost savings compared to our original estimate and continues to perform consistently with that, and has performed pretty well against its schedule.    The remote video surveillance system is the other large significant program in Arizona. That program also has clicked along with--it was awarded at a reduced cost compared to our estimate. We have already deployed 4 AORs, the fifth will be completed by this year, and it has performed well on its cost.    The mobile surveillance capability is completely deployed to Arizona and is now extending its deployment outside of Arizona. That was awarded below its estimated cost and performed on cost. In addition, those systems have delivered on their performance.    So I think one of the things I would say is that is as an acquisition person, I essentially have 4 degrees of freedom that I play with: Cost, schedule, performance, and risk.    For the most part, I think we have not done well on schedule. I would have to acknowledge that. We have failed on schedule. We are trying to attack that. I am still looking for more ways to do that. But on the cost, schedule, and performance on these systems, I actually think we have done well once we got them going.    So Arizona is well under way compared to the baseline. The next area of emphasis on the Southwest Border has been Texas. Because of the money we saved, we were actually able to free up resources to do what our--they started out as pilots with DOD reuse, Department of Defense reuse systems. I think the most visible of those are the tactical aerostats. We now have 6 flying in Texas. We are putting up 17 of the towers that are associated with those--with cameras and potentially radars in areas that, frankly, would not have had technology until probably 2018, 2019 because we were able to generate savings, and by working with the Department of Defense, we are able to get a little more speed in delivery.    Having said that, though, that is not the long-term plan for Texas. The long-term plan for Texas has been remote video surveillance systems, mobile video surveillance systems. Those contracts are underway. The challenge in Texas has to do with environmental land clearances, land acquisition. Those are challenges. We are working through those, but that is an 18- to 24-month problem that we are working through.    We have gotten tremendous support from Congress on funding for that. We are working our way through that.    Sir, Congressman Vela, with respect to the mobile video surveillance systems, those are also, as you suggested, designated for Texas. They are very critical there.    The current contract will provide about 127 of those. The protest has been resolved in our favor. The contract is under way. We expect to deliver the first 4 of those toward the end of this year for testing, and then, over the next 2 years, deliver 127 that will be covered under the contract.    So I think we have made some progress. Am I completely satisfied? No. We do have some work to do in terms of, how do we handle this very, very slow acquisition process? How do we improve that? I look forward to discussions on that.    Having said that, I do think the programs that we have awarded have largely been successful once we have gotten over that procurement hump. I look forward to questions going forward.    [The joint prepared statement of Mr. Vitiello, Mr. Alles, and Mr. Borkowski follows:] Prepared Statement of Ronald Vitiello, Randolph D. ``Tex'' Alles, and                              Mark Borkowski                              May 24, 2016    Chairwoman McSally, Ranking Member Vela, and distinguished Members of the committee. It is a pleasure to appear before you today on behalf of U.S. Customs and Border Protection (CBP) to discuss the acquisition and deployment of border security technology between our Nation's ports of entry (POE).    Along the more than 5,000 miles of border with Canada, 1,900 miles of border with Mexico, and approximately 95,000 miles of shoreline, CBP secures our borders and associated airspace and maritime approaches to prevent illegal entry of people and goods into the United States. The border environment in which CBP works is dynamic and requires continual adaptation to respond to emerging threats and changing conditions. We appreciate the partnership and support we have received from this committee, whose commitment to the security of the American people has enabled the continued deployment of advanced technology assets needed to secure the border.    In the acquisition and deployment of border security technology, CBP ensures that investments are effective and that procurement processes are efficient, transparent, and compliant with Federal law and Department of Homeland Security (DHS) policy. With all our programs, operations, and activities, we welcome oversight and embrace our responsibility as stewards of American taxpayer resources.    When CBP was formed in 2003, it was an organization comprised of components that had different approaches, methods, and policies regarding acquisition and management activities. Although our operations had been integrated under one mission, CBP, and in a broader context DHS, lacked a standardized and unified acquisition structure, including governance and oversight, strong requirements development process, and centralized resource allocation. In order to strengthen and streamline acquisition management throughout the Department, Secretary Johnson launched the Unity of Effort initiative, which established a more collaborative process for decision making, including those that shape acquisition and resource allocation.    A key element of the Unity of Effort initiative is the establishment of the Joint Requirements Council (JRC), designed to improve the quality and validity of the Department's requirements generation and oversight process. The JRC creates a stronger focus earlier in the investment life cycle--at the requirements development stage--to better position DHS components, including CBP, to effectively and efficiently execute acquisition strategies and budgets that ultimately close capability gaps.    As part of this initiative, CBP is the sponsoring component for DHS Joint Task Force West and a participating component in Joint Task Force East and Joint Task Force for Investigations. These Joint Task Forces are conducting the DHS Southern Border and Approaches Campaign Plan (SBAC), launched in early 2015, which put the assets and personnel of the Department to use in a combined and strategic way to collaboratively plan and execute multi-component DHS operations to better protect the border. Aimed at leveraging the range of unique Department roles, responsibilities, and capabilities, the Campaign enhances our operational capability to address comprehensive threat environments in a unified way. Together, the DHS Unity of Effort initiative and the Campaign will drive border security investments and direct DHS resources in a much more collaborative fashion to address the range of threats and challenges, including illegal migration, smuggling of illegal drugs, human and arms trafficking, the illicit financing of such operations, and threat of terrorist exploitation of border vulnerabilities.    Our testimony today will discuss CBP's technology investments between the POEs, highlight some of CBP's deployed border technology assets, and describe the agency's path forward to ensure that CBP's acquisition strategies and structure is in place to meet the challenge of a dynamic border threat environment.             technology investments between ports of entry    For CBP, the use of technology in the border environment is an invaluable force multiplier to increase situational awareness. Thanks to the support of Congress, CBP continues to deploy proven, effective technology to strengthen border security operations between the POEs--in the land, air, and maritime environments. With enhanced surveillance capabilities, CBP can improve its situational awareness remotely, direct a response team to the best interdiction location, and warn the team of any additional danger otherwise unknown along the way. As a result, these investments increase CBP's visibility on the border, operational capabilities, and the safety of front-line law enforcement personnel.    It is imperative that DHS and CBP promote operational agility by leveraging technological advances and innovative practices. A key element of CBP's acquisition strategy, innovation is not simply the process of buying the newest technology; rather, it is the product of a collaborative culture that supports creativity, optimizes resource allocation and pursues the greatest return on investment and delivery of prioritized operational capabilities.    This committee is familiar with the outcome of CBP's SBInet program, an earlier component of the DHS Secure Border Initiative (SBI) that was designed as a comprehensive and integrated technology program to provide persistent surveillance across U.S. borders. The program experienced significant schedule delays and cost overruns because it did not allow necessary flexibility to adapt to differing needs in the various regions of the border. SBInet eventually delivered systems to 2 Areas of Responsibility (AORs) in Arizona that continue to operate successfully. Nevertheless, DHS cancelled SBInet on January 14, 2011, because it was too costly and the idea of one, all-encompassing program was unnecessarily complex for border technology.    Since 2011, DHS and CBP have approached our border technology requirements, ranging from small to large, simple to complex, in more manageable pieces tailored to specific regions on the border. For example, CBP's Arizona Technology Plan (ATP), which focuses on technology that specifically meets the needs of border conditions in Arizona, is the first of many phases in a multi-year effort to provide a cost-effective mix of fixed and mobile technology across the Southwest Border. The ATP acquisition strategy leverages ``non-developmental'' technology to the greatest extent possible, providing more flexible, less risky, and less costly procurements and deployments. Using the non-developmental approach, most of the programs within the ATP are on contract and many systems have already been deployed. Although it is too early to declare complete success, the early indications of the acquisition strategy are quite positive and, in some cases, far exceed our expectations.    There is no one-size-fits-all approach to border security technology acquisition. CBP's Office of Technology Innovation and Acquisition (OTIA) works collaboratively with the U.S. Border Patrol (USBP) and Air and Marine Operations (AMO) to develop requirements, test and evaluate technology, and deploy effective technology in support of CBP's border security mission.Fixed, Persistent Surveillance    Integrated Fixed Tower (IFT) systems are one of the technologies that are in the process of being acquired and deployed to the Southwest Border in Arizona as part of the ATP. IFTs are fixed surveillance assets that provide long-range persistent surveillance. These systems cover very large areas and incorporate a Common Operating Picture (COP), a central hub that receives data from one or multiple tower units. The tower systems automatically detect and track items of interest, and provide the COP operator(s) with the data, video, and geospatial location of selected items of interest to identify and classify them. In February of this year, the USBP conditionally accepted the IFT system and is currently looking to develop improvements for the already-deployed system.    Remote Video Surveillance Systems (RVSS) are another fixed technology asset used in select areas along the Southwest and Northern borders. These systems provide short-, medium-, and long-range persistent surveillance mounted on stand-alone towers, or other structures. The RVSS uses cameras, radio, and microwave transmitters to send video to a control room and enables a control room operator to remotely detect, identify, classify, and track targets using the video feed.    Without fixed-system technology such as IFT and RVSS, the Border Patrol's ability to detect, identify, classify, and track illicit activity would be decreased. Fixed systems provide line-of-sight surveillance coverage to efficiently detect incursions in flat terrain. The Border Patrol integrates mobile and portable systems to address areas where rugged terrain and dense ground cover may allow adversaries to penetrate through blind spots or avoid the coverage areas of fixed systems.Mobile Capabilities    The border environment between the ports of entry is dynamic. Working in conjunction with fixed surveillance assets, CBP's mobile technology assets provide flexibility and agility to adapt to changing border conditions and threats. Mobile technologies are deployed in California, Arizona, New Mexico, and Texas as well as several Northern Border locations. Along the Southwest Border, Mobile Surveillance Capability (MSC) systems provide long-range mobile surveillance and consist of a suite of radar and camera sensors mounted on Border Patrol vehicles. An agent deploys with the vehicle to operate the system, which automatically detects and tracks items of interest and provides the agent/operator with data and video of the observed subject.    Mobile Vehicle Surveillance Systems (MVSS) provide short- and medium-range mobile surveillance equipment mounted on telescoping masts and consist of a suite of camera sensors mounted on Border Patrol vehicles. An agent deploys with the system, which detects, tracks, identifies, and classifies items of interest using the video feed. The agent/operator observes activity on the video monitor to detect intrusions and assist agents/officers in responding to those intrusions.    Another system, which does not need to be mounted to a vehicle, is the Agent Portable Surveillance System (APSS). These systems provide medium-range mobile surveillance, and are transported by 2 or 3 agents and mounted on a tripod. Two agents remain on-site, one to operate the system, which automatically detects and tracks items of interest and provides the agent/operator with data and video of selected items of interest.    In some areas along the Southwest Border, CBP also uses Unattended Ground Sensors (UGS), which provide short-range persistent surveillance. These sensors support our capability to detect, and to a limited extent, track, and identify subjects. Sensor capabilities include seismic, passive infrared, acoustic, contact closure, and magnetic, although these capabilities are not necessarily available in all deployed UGS. When a ground sensor is activated, an alarm is communicated to a data decoder that translates the sensor's activation data to a centralized computer system in an operations center. Some UGS are used in conjunction with Imaging Sensors (IS). The UGS/IS include an imaging capability to transmit images or video back to the operations center. As with UGS, UGS/IS are monitored in a centralized system and geospatially tracked.    CBP's Tactical Aerostats and Re-locatable Towers program, originally part of the Department of Defense (DOD) Re-use program, uses a mix of aerostats, towers, cameras, and radars to provide Border Patrol with increased situational awareness through an advanced surveillance capability over a wide area. This capability has proven to be a vital asset in increasing CBP's ability to detect, identify, classify, and track activity.    The absence of mobile surveillance technology would limit the Border Patrol's ability to detect, identify, classify, track, and rapidly respond to illicit activity. These technologies not only provide significant security benefits and multiply the capabilities of law enforcement personnel to detect, identify, and respond to suspicious activity, but they also assist with public safety along the border. Mobile surveillance technology systems enable agents to position the technology where it is needed at a specific moment, extend our observational capabilities, and increase the accuracy and speed of our response.    Technology is critical to border security operations. A tailored blend of fixed, mobile, and portable surveillance systems that complement one another increases the Border Patrol's effectiveness in targeting a response to high-risk areas, enabling rapid response strategies to maximize limited manpower, and adjusting to seasonal/periodic traffic patterns.Air and Marine Capabilities    AMO increases CBP's situational awareness, enhances its detection and interdiction capabilities, and extends our border security zones, offering greater capacity to stop threats prior to reaching the Nation's shores. Through the use of coordinated and integrated surveillance capabilities--including aviation, marine, tethered aerostats, and integrated ground-based radars--AMO detects, interdicts, and prevents acts of terrorism and the unlawful movement of people, illegal drugs, and other contraband toward or across the borders of the United States. These assets provide multi-domain awareness for our partners across the Department, as well as critical aerial and maritime surveillance, interdiction, and operational assistance to our ground personnel.    AMO's maritime assets are tailored to the conditions of the threat environment in which we operate, and equipped with the capabilities required to interdict attempted illicit smuggling of drugs and undocumented aliens. Often there is little time to interdict inbound suspect vessels and AMO has honed its maritime border security response capability around rapid and effective interception, pursuit, and interdiction of these craft. AMO employs high-speed Coastal Interceptor Vessels (CIV) that are specifically designed and engineered with the speed, maneuverability, integrity, and endurance to intercept and engage a variety of suspect non-compliant vessels in offshore waters, as well as the Great Lakes on the Northern Border.    CBP's aerial surveillance capabilities are enhanced through recent investments and deployments of Multi-Role Enforcement Aircraft (MEA). The MEA has a multi-mode radar for use over water and land, an electro-optical/infrared camera system, and a satellite communications system. The MEA replaces several older, single-mission assets and remains the only asset customized to provide maritime support in the near-shore customs waters. With its sophisticated technology systems, the MEA is a highly capable, twin-engine aircraft and a critical investment in CBP's maritime, land, and aerial surveillance capabilities.    P-3 Long-Range Trackers and Airborne Early Warning Aircraft provide critical detection and interdiction capability in both the air and marine environment. Sophisticated sensors and high-endurance capability greatly increase CBP's range to counter illicit trafficking. AMO P-3s are an integral part of the successful counter-narcotic missions operating in coordination with the Joint Interagency Task Force--South. The P-3s patrol in a 42-million-square-mile area that includes more than 41 nations, the Pacific Ocean, Gulf of Mexico, Caribbean Sea, and seaboard approaches to the United States. In fiscal year 2015, CBP's P-3s operational efforts led to the total seizure or disruption of more than 204,464 pounds of cocaine with an estimated street value of $15.3 billion.    Another important asset is the DHC-8 Maritime Patrol Aircraft (MPA). It bridges the gap between the strategic P-3 and Unmanned Aircraft System (UAS) assets and the smaller assets providing support in the littoral waters. This tool allows AMO an unprecedented level of situational awareness in the Gulf of Mexico and the Caribbean.    AMO's tactical resources have also received a number of technological upgrades to add to their utility. The AS-350 helicopter has received avionics upgrades to allow the operators to focus more of their attention on the mission, making them more effective. AMO has also added detection technology to its fixed-wing light observation aircraft, greatly increasing its tactical capabilities.    Additionally, UAS are increasingly instrumental in CBP's layered and integrated approach to border security. The UAS consists of an unmanned aircraft, sensors, communication packages, pilots, and ground control operators. UAS are used to meet surveillance and other mission requirements along the Southwest Border, Northern Border, Southeast coastal area, and in the drug source and transit zones. Four of CBP's UAS are equipped with Vehicle and Dismount Exploitation Radar (VADER) sensor systems, which are capable of detecting human movement along the ground and increase CBP aerial surveillance, enforcement, and security to prevent potential threats from illegally entering the United States. Since 2012, VADER has detected over 40,000 people moving across the Southwest Border. Since 2006, this versatile platform has been credited with interdicting/disrupting 13,144 pounds of cocaine and 321,330 pounds of marijuana worth an estimated $1.8 billion. The UAS program has achieved over 35,900 flight hours since program inception in fiscal year 2006.    UAS and P-3 aircraft are equipped with technology that provides full-motion video capture and provides real-time and forensic analysis. This advanced detection and communication system enables CBP to disseminate images and other sensor data to operational users in real time, increasing response effectiveness and speed.    Perhaps the most important advancements come in the area of data integration and exploitation. Downlink technology, paired with the BigPipe system, allows AMO to provide a video feed and situational awareness to its law enforcement partners in real time. In addition, the Minotaur mission integration system will allow multiple aircraft to share information from multiple sources, providing a never-before-seen level of air, land, and sea domain awareness. As the Minotaur system evolves, it will provide even greater awareness for a greater number of users.    AMO also combats airborne and maritime smuggling with an integrated long-range radar architecture comprised of ground-based radars and elevated radars deployed on tethered aerostats. AMO, in partnership with DOD, operates and maintains a large network of terrestrial radars to establish and maintain wide-area, persistent surveillance of commercial and non-commercial aircraft flying toward, arriving at, or passing through our borders. With the awareness generated by this sensor network, CBP can detect and respond to air and maritime movement anomalies that could pose a threat to our homeland, including trafficking organizations attempting to deliver contraband across the border by flying beneath the radar field of view of our ground-based radars.    AMO's Tethered Aerostat Radar System (TARS) monitors the low-altitude approaches to the United States and denies this airspace for illicit smuggling. With 8 aerostat sites--6 along the Southwest Border, 1 in the Florida Keys, and 1 in Puerto Rico--the TARS' elevated sensor mitigates the effect of the curvature of the earth and terrain-masking limitations associated with ground-based radars, enabling maximum long-range radar detection capabilities. In fiscal years 2014 and 2015 TARS recorded nearly 1,000 suspected cross-border attempts, approximately 85 percent of all Southwest Border radar detections.    A vital component of DHS's domain awareness capabilities, CBP's Air and Marine Operations Center (AMOC) integrates surveillance capabilities and coordinates with other CBP operational components, including the USBP, Federal, and international partners \\1\\ to detect, identify, track, and support interdiction of suspect aviation and maritime activity in the approaches to U.S. borders, at the borders, and within the interior of the United States. Coordinating with extensive law enforcement and intelligence databases and communication networks, AMOC's command-and-control operational system, the Air and Marine Operations Surveillance System (AMOSS), provides a single display that is capable of processing up to 700 individual sensor feeds and tracking over 50,000 individual targets simultaneously. The 8 TARS sites represent approximately 2 percent of the total available radars in AMOSS, yet were able to account for detecting 53 percent of all suspect target detections.---------------------------------------------------------------------------    \\1\\ AMOC partners include the Federal Aviation Administration (FAA), the Department of Defense (including the North American Aerospace Defense Command (NORAD)), and the governments of Mexico, Canada, and the Bahamas.---------------------------------------------------------------------------    As we continue to deploy border surveillance technology, particularly along the Southwest Border, these investments in fixed and mobile technology, as well as enhancements of domain awareness capabilities provided by the AMOC allow CBP the flexibility to shift more officers and agents from detection duties to interdiction of illegal activities on our borders.               cbp's acquisition strategy and realignment    Since its establishment in 2010, OTIA has led CBP's acquisition oversight and coordination efforts and has been recognized as the primary point of contact for CBP acquisition activities. While CBP's intent was for all mission offices' acquisition program management, requirement development, and oversight to be integrated and consolidated under OTIA, because of the broad scope of CBP's mission and diversity of operating environments, the management of several of CBP's large acquisition programs were not migrated to OTIA. However, in the past 5 years, OTIA has aligned CBP's acquisition policies, procedures, and practices with DHS Department standards, consolidated CBP's acquisition governance and accountability structure, brought multiple high-impact programs back on track, and has contracted, deployed and sustained critical border security technology assets.    In 2015, as part of on-going headquarters realignment efforts, CBP Commissioner R. Gil Kerlikowske engaged the Defense Acquisition University (DAU) to provide a review and recommendations of the state of CBP acquisition management. The key DAU alignment-related findings and recommendations included clarifying and strengthening the Component Acquisition Executive (CAE) independent oversight authority on behalf of the Commissioner; separating OTIA's key roles of oversight, requirements, and program management; and aligning programs and accountability with operational offices. To ensure that these recommended improvements are possible, and to ensure CBP's acquisition construct aligns with the DHS acquisition oversight framework, CBP is in the process of redirecting acquisition, program, and requirements management responsibilities.    This realignment is the next step forward in building off the achievements OTIA has made possible, including the standardization of acquisition policies, processes, and oversight and the development of acquisition expertise in the CBP workforce. The separation and redistribution of CBP's acquisition functions--including requirements development and program management--from OTIA to other areas within CBP's operational structure, increases acquisition effectiveness and efficiency, and strengthens agency oversight of acquisition activities. CBP's requirements function will be managed under the Operational Support (OS) division, where technical experts will work directly with front-line operators in the execution of a holistic, strategy-led requirements development program. The execution of acquisition programs will be aligned directly under CBP's operational components--USBP, AMO, and the Office of Field Operations--to tighten the link between acquisition programs, users, and funding. Acquisition program oversight, policy and procedures promulgation, and acquisition workforce management--under the leadership of the Chief Acquisition Officer--will be part of CBP's Enterprise Services (ES) division to create an even stronger alignment with the DHS acquisition framework. The realignment will result in stronger management much earlier in the acquisition investment life cycle, increased oversight, as well as better integration of CBP personnel and operational expertise.    CBP works closely with other elements of DHS headquarters and fellow Department components to ensure strategy-led, operationally-informed requirements development. In coordination with the DHS joint requirements process, the USBP and AMO will continue to use the Capability Gap Analysis Process (CGAP) to conduct mission analysis and identify capability gaps. From this analysis, OS will work with USBP and AMO to identify and plan operational requirements over the short-, mid-, and long-term and to identify potential solutions, which may (or may not) include fencing, roads, or other solutions depending on the nature, scope, severity, and geographic location of a given capability gap. AMO began C-GAP in October 2015 using best practices and lessons learned from the USBP process. The AMO process examines aviation and maritime mission spaces and capabilities, while taking advantage of the analytical models and processes the USBP has established. AMO and USBP gap analyses inform the OS-led requirements process and are prioritized and linked to Department activities and strategies. With all technology, CBP works closely with agents on the ground to develop operational requirements, conduct testing and evaluation, and obtain user feedback to ensure that the right tool is applied to the right capability gap. Terrain, threat, socio-economic, and political considerations vary greatly across sectors and regions, making a ``one size fits all'' approach ineffective.    CBP works closely with the DHS Science &amp; Technology (S&amp;T) Directorate to identify and develop technology to improve our surveillance and detection capabilities along our land and maritime borders. This includes investments in tunnel detection and tunnel activity monitoring technology; tactical communication upgrades, Small Unmanned Aircraft Systems (SUAS); low-flying aircraft detection and tracking systems, land and maritime data integration/data fusion capabilities, and border surveillance tools tailored to the Southwest and Northern Border, including unattended ground sensors/tripwires, upgrades for mobile Surveillance Systems, slash camera poles, and wide-area surveillance.    In addition to collaboration with our DHS partners, as part of CBP's efforts to seek innovative ways to acquire and use technology, CBP formed a partnership with DOD to identify and reuse excess DOD technology. To date, CBP has acquired several types of technology, including thermal imaging equipment, night vision equipment, and tactical aerostat systems, which increase CBP's situational awareness and operational flexibility in responding to border threats. We will continue to pursue additional opportunities to leverage DOD excess equipment. We will do this in a sustainable way by considering the full life-cycle costs of the DOD equipment we are considering before acquiring it.                               conclusion    Technology is a primary driver of all land, maritime, and air domain awareness. The information obtained from fixed and mobile surveillance systems, ground sensors, imaging systems, and other advanced technologies enhances domain awareness, informs situational awareness, and better enables CBP to monitor, detect, identify, and appropriately respond to threats in the Nation's border regions.    A</t>
   </si>
   <si>
@@ -121,6 +145,12 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Bennie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Madam Chair, and thank you, Ranking Member.    Some of us have been around a little while, and we have seen procurements come and go. I guess I will ask Ms. Gambler: Your review of the systems, can you share with the committee your analysis of whether or not we are getting better at procurements? Or we are about where we have been all the time?</t>
   </si>
   <si>
@@ -244,6 +274,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Madam Chairwoman.    I want to revisit this issue of the aerostats. Can you tell me how many aerostats you have in--that are deployed at present?</t>
   </si>
   <si>
@@ -359,6 +395,12 @@
   </si>
   <si>
     <t>412617</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Norma</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you, Chairwoman.    How is CBP measuring the effectiveness of the technology deployed at the border, and what matrix are used and how does that compare over time?</t>
@@ -983,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,7 +1033,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,4853 +1055,5684 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G41" t="s">
+        <v>43</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G66" t="s">
+        <v>86</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G70" t="s">
+        <v>86</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G74" t="s">
+        <v>86</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>75</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G76" t="s">
+        <v>86</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>75</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G78" t="s">
+        <v>86</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>75</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G80" t="s">
+        <v>86</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G83" t="s">
+        <v>86</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>75</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G85" t="s">
+        <v>86</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>75</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G87" t="s">
+        <v>86</v>
+      </c>
       <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>75</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G89" t="s">
+        <v>86</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>75</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G91" t="s">
+        <v>86</v>
+      </c>
       <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>75</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G94" t="s">
+        <v>86</v>
+      </c>
       <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G96" t="s">
+        <v>86</v>
+      </c>
       <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>75</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G98" t="s">
+        <v>86</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>75</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G100" t="s">
+        <v>86</v>
+      </c>
       <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>114</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G102" t="s">
+        <v>127</v>
+      </c>
       <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G104" t="s">
+        <v>127</v>
+      </c>
       <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>114</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G106" t="s">
+        <v>127</v>
+      </c>
       <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G108" t="s">
+        <v>127</v>
+      </c>
       <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G110" t="s">
+        <v>127</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>114</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G112" t="s">
+        <v>127</v>
+      </c>
       <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>114</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G114" t="s">
+        <v>127</v>
+      </c>
       <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>30</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s">
+        <v>24</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>24</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G151" t="s">
+        <v>30</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s">
+        <v>30</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s">
+        <v>27</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G162" t="s">
+        <v>27</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G164" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G166" t="s">
+        <v>27</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G169" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
       <c r="H170" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G171" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
       <c r="H172" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G173" t="s">
+        <v>30</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G175" t="s">
+        <v>30</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
       <c r="H176" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G177" t="s">
+        <v>24</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
       <c r="H178" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>24</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
       <c r="H180" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>24</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>27</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
       <c r="H184" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G187" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G189" t="s">
+        <v>27</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G191" t="s">
+        <v>27</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G193" t="s">
+        <v>30</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
       <c r="H194" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G195" t="s">
+        <v>30</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
       <c r="H196" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G197" t="s">
+        <v>24</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
       <c r="H198" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G199" t="s">
+        <v>27</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
       <c r="H200" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G201" t="s">
+        <v>30</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
       <c r="H202" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
       <c r="H203" t="s">
-        <v>206</v>
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23244.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23244.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412611</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>McSally</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412580</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Vela</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Thompson</t>
   </si>
   <si>
@@ -272,6 +284,9 @@
   </si>
   <si>
     <t>400341</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rogers</t>
@@ -1025,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,7 +1048,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,5681 +1073,6108 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I66" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>24</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G85" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G89" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>24</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G91" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>30</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G94" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G96" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>30</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G98" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G100" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H100" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G104" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I106" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G108" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G110" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H112" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G114" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>24</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>24</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>24</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>27</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s">
-        <v>24</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s">
-        <v>24</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s">
-        <v>24</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s">
-        <v>24</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s">
-        <v>24</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" t="s">
-        <v>24</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>30</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>33</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>30</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>33</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s">
-        <v>30</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>33</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s">
-        <v>30</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>33</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>30</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s">
-        <v>24</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>27</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>24</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>27</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s">
-        <v>27</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>30</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" t="s">
-        <v>30</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>33</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" t="s">
-        <v>30</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>33</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s">
-        <v>27</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" t="s">
-        <v>27</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>30</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>30</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>33</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s">
-        <v>30</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>33</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s">
-        <v>27</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>30</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>27</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>30</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s">
-        <v>27</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>30</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>23</v>
-      </c>
-      <c r="G169" t="s">
-        <v>30</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>33</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I170" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>23</v>
-      </c>
-      <c r="G171" t="s">
-        <v>30</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>33</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I172" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>23</v>
-      </c>
-      <c r="G173" t="s">
-        <v>30</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>33</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>23</v>
-      </c>
-      <c r="G175" t="s">
-        <v>30</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>33</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>23</v>
-      </c>
-      <c r="G177" t="s">
-        <v>24</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>27</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>23</v>
-      </c>
-      <c r="G179" t="s">
-        <v>24</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>27</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I180" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>23</v>
-      </c>
-      <c r="G181" t="s">
-        <v>24</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>27</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I182" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J182" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>23</v>
-      </c>
-      <c r="G183" t="s">
-        <v>27</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>30</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>23</v>
-      </c>
-      <c r="G185" t="s">
-        <v>24</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>27</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I186" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J186" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>23</v>
-      </c>
-      <c r="G187" t="s">
-        <v>24</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>27</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J188" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>23</v>
-      </c>
-      <c r="G189" t="s">
-        <v>27</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>30</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>23</v>
-      </c>
-      <c r="G191" t="s">
-        <v>27</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>30</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>23</v>
-      </c>
-      <c r="G193" t="s">
-        <v>30</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>33</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I194" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>23</v>
-      </c>
-      <c r="G195" t="s">
-        <v>30</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>33</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I196" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J196" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>23</v>
-      </c>
-      <c r="G197" t="s">
-        <v>24</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>27</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I198" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>23</v>
-      </c>
-      <c r="G199" t="s">
-        <v>27</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>30</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I200" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J200" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>23</v>
-      </c>
-      <c r="G201" t="s">
-        <v>30</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>33</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I202" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J202" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I203" t="s">
-        <v>220</v>
+        <v>16</v>
+      </c>
+      <c r="J203" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
